--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\212715347\GeGt\ManagedDashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2423ACDF-FE03-4F98-B077-40F28011761C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E415135-0FCA-4A1B-946B-98379DAC9EEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12132" windowHeight="7596" xr2:uid="{ADD56483-03D5-4569-8697-52B79BD3334E}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -163,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,19 +170,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,11 +517,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A697F094-D24E-4071-92A5-8FD581233B1D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" sqref="A1:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,194 +533,223 @@
     <col min="2" max="2" width="39.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="42" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>50</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>50</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>